--- a/hadout.xlsx
+++ b/hadout.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65e5ba34f41e25e0/lab/population_dynamics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5A226FCD-8AA2-492F-85B1-8F58658DF6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:40009_{5A226FCD-8AA2-492F-85B1-8F58658DF6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1F5F5CC-7C73-4F5C-88A2-559B466FC48E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hadout" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1001,7 +1014,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1627,48 +1640,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1684,7 +1697,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1999,20 +2012,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2045,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2052,7 +2065,7 @@
         <v>3620.3240000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2072,7 +2085,7 @@
         <v>47486.932000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2105,7 @@
         <v>1328.704</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2112,7 +2125,7 @@
         <v>120283.024</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2132,7 +2145,7 @@
         <v>5535.98199999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2152,7 +2165,7 @@
         <v>64531.448999999899</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2172,7 +2185,7 @@
         <v>2341.1849999999899</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2192,7 +2205,7 @@
         <v>67281.036999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2212,7 +2225,7 @@
         <v>3757.9839999999899</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2232,7 +2245,7 @@
         <v>32833.036999999902</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2252,7 +2265,7 @@
         <v>13531.909</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2272,7 +2285,7 @@
         <v>2639.922</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2292,7 +2305,7 @@
         <v>2060.73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2312,7 +2325,7 @@
         <v>1634.473</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2332,7 +2345,7 @@
         <v>10445.3679999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2352,7 +2365,7 @@
         <v>17608.483</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>7494.5799999999899</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2392,7 +2405,7 @@
         <v>10278.3459999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2412,7 +2425,7 @@
         <v>4060.1390000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2432,7 +2445,7 @@
         <v>11447.575000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2452,7 +2465,7 @@
         <v>9709.7839999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2472,7 +2485,7 @@
         <v>273753.19300000003</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2492,7 +2505,7 @@
         <v>1407563.841</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2512,7 +2525,7 @@
         <v>4986.5249999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2532,7 +2545,7 @@
         <v>87923.434999999896</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2552,7 +2565,7 @@
         <v>43533.591999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2572,7 +2585,7 @@
         <v>8900.0570000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -2592,7 +2605,7 @@
         <v>59240.336999999898</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -2612,7 +2625,7 @@
         <v>2827.701</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -2632,7 +2645,7 @@
         <v>11148.288</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -2652,7 +2665,7 @@
         <v>124612.52599999899</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -2672,7 +2685,7 @@
         <v>19196.468000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -2692,7 +2705,7 @@
         <v>53005.618000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -2712,7 +2725,7 @@
         <v>6527.7420000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -2732,7 +2745,7 @@
         <v>16589.030999999901</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -2752,7 +2765,7 @@
         <v>51830.137999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -2772,7 +2785,7 @@
         <v>4250.1109999999899</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -2792,7 +2805,7 @@
         <v>7425.0550000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -2812,7 +2825,7 @@
         <v>5592.6260000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -2832,7 +2845,7 @@
         <v>5193.4219999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -2852,7 +2865,7 @@
         <v>6735.28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -2872,7 +2885,7 @@
         <v>21773.437999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2892,7 +2905,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>170</v>
       </c>
@@ -2912,7 +2925,7 @@
         <v>16876.725999999901</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>172</v>
       </c>
@@ -2932,7 +2945,7 @@
         <v>5941.0630000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>174</v>
       </c>
@@ -2952,7 +2965,7 @@
         <v>8420.6419999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>176</v>
       </c>
@@ -2972,7 +2985,7 @@
         <v>6314.165</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>178</v>
       </c>
@@ -2992,7 +3005,7 @@
         <v>17065.589</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>180</v>
       </c>
@@ -3012,7 +3025,7 @@
         <v>7296.7709999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>182</v>
       </c>
@@ -3032,7 +3045,7 @@
         <v>10748.2779999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>184</v>
       </c>
@@ -3052,7 +3065,7 @@
         <v>5447.6210000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>186</v>
       </c>
@@ -3072,7 +3085,7 @@
         <v>2119.4079999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>188</v>
       </c>
@@ -3092,7 +3105,7 @@
         <v>10467.094999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>190</v>
       </c>
@@ -3112,7 +3125,7 @@
         <v>1192.2729999999899</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>192</v>
       </c>
@@ -3132,7 +3145,7 @@
         <v>21324.366999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>194</v>
       </c>
@@ -3152,7 +3165,7 @@
         <v>17179.7429999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>196</v>
       </c>
@@ -3172,7 +3185,7 @@
         <v>8644.8289999999906</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>198</v>
       </c>
@@ -3192,7 +3205,7 @@
         <v>71601.107000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>200</v>
       </c>
@@ -3212,7 +3225,7 @@
         <v>9750.0779999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>202</v>
       </c>
@@ -3232,7 +3245,7 @@
         <v>6341.85</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>204</v>
       </c>
@@ -3252,7 +3265,7 @@
         <v>1320.94399999999</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>206</v>
       </c>
@@ -3272,7 +3285,7 @@
         <v>1525.671</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>208</v>
       </c>
@@ -3292,7 +3305,7 @@
         <v>12262.949000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>210</v>
       </c>
@@ -3312,7 +3325,7 @@
         <v>84775.404999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>212</v>
       </c>
@@ -3332,7 +3345,7 @@
         <v>23859.904999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>214</v>
       </c>
@@ -3352,7 +3365,7 @@
         <v>63588.332999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>216</v>
       </c>
@@ -3372,7 +3385,7 @@
         <v>45853.777999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>218</v>
       </c>
@@ -3392,7 +3405,7 @@
         <v>43531.421999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>220</v>
       </c>
@@ -3412,7 +3425,7 @@
         <v>3426.2649999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>222</v>
       </c>
@@ -3432,7 +3445,7 @@
         <v>336997.625</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>224</v>
       </c>
@@ -3452,7 +3465,7 @@
         <v>34081.449999999903</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>226</v>
       </c>
@@ -3472,7 +3485,7 @@
         <v>28199.862999999899</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>228</v>
       </c>
@@ -3492,7 +3505,7 @@
         <v>97468.024999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>230</v>
       </c>
@@ -3512,7 +3525,7 @@
         <v>1662.0219999999899</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>232</v>
       </c>
@@ -3532,7 +3545,7 @@
         <v>32981.643999999898</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>234</v>
       </c>
@@ -3552,7 +3565,7 @@
         <v>59392.256999999903</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>236</v>
       </c>
@@ -3572,7 +3585,7 @@
         <v>19473.1329999999</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>238</v>
       </c>
@@ -3592,7 +3605,7 @@
         <v>15993.525</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>240</v>
       </c>
@@ -3606,7 +3619,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>242</v>
       </c>
@@ -3620,7 +3633,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>244</v>
       </c>
@@ -3634,7 +3647,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>246</v>
       </c>
@@ -3648,7 +3661,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>248</v>
       </c>
@@ -3662,7 +3675,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>250</v>
       </c>
@@ -3676,7 +3689,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>252</v>
       </c>
@@ -3692,7 +3705,38 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576 F1:F1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CAFDF8FF-7BDA-4705-A430-88AF98C1E564}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CAFDF8FF-7BDA-4705-A430-88AF98C1E564}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1:C1048576 F1:F1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>